--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Tgfb2-Acvr1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Tgfb2-Acvr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,16 +82,16 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Tgfb2</t>
+  </si>
+  <si>
+    <t>Acvr1</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Tgfb2</t>
-  </si>
-  <si>
-    <t>Acvr1</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.833451</v>
+        <v>1.346799</v>
       </c>
       <c r="H2">
-        <v>5.500353</v>
+        <v>4.040397</v>
       </c>
       <c r="I2">
-        <v>0.08912979432221635</v>
+        <v>0.06286736108928971</v>
       </c>
       <c r="J2">
-        <v>0.1065114253185847</v>
+        <v>0.07647429322219859</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.206141000000001</v>
+        <v>7.004922666666666</v>
       </c>
       <c r="N2">
-        <v>24.618423</v>
+        <v>21.014768</v>
       </c>
       <c r="O2">
-        <v>0.1726874201070044</v>
+        <v>0.134029393318039</v>
       </c>
       <c r="P2">
-        <v>0.185725470694853</v>
+        <v>0.1464771065395205</v>
       </c>
       <c r="Q2">
-        <v>15.045557422591</v>
+        <v>9.434222842544001</v>
       </c>
       <c r="R2">
-        <v>135.410016803319</v>
+        <v>84.90800558289601</v>
       </c>
       <c r="S2">
-        <v>0.01539159423617147</v>
+        <v>0.008426074266303589</v>
       </c>
       <c r="T2">
-        <v>0.01978188460167384</v>
+        <v>0.01120173319584251</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.833451</v>
+        <v>1.346799</v>
       </c>
       <c r="H3">
-        <v>5.500353</v>
+        <v>4.040397</v>
       </c>
       <c r="I3">
-        <v>0.08912979432221635</v>
+        <v>0.06286736108928971</v>
       </c>
       <c r="J3">
-        <v>0.1065114253185847</v>
+        <v>0.07647429322219859</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>59.522376</v>
       </c>
       <c r="O3">
-        <v>0.4175233137426827</v>
+        <v>0.3796257919253833</v>
       </c>
       <c r="P3">
-        <v>0.4490466874939968</v>
+        <v>0.4148827819958515</v>
       </c>
       <c r="Q3">
-        <v>36.377119933192</v>
+        <v>26.721558824808</v>
       </c>
       <c r="R3">
-        <v>327.394079398728</v>
+        <v>240.494029423272</v>
       </c>
       <c r="S3">
-        <v>0.03721376707861552</v>
+        <v>0.02386607173978063</v>
       </c>
       <c r="T3">
-        <v>0.0478286027195747</v>
+        <v>0.03172786752319225</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,14 +649,14 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>25</v>
       </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
       <c r="E4">
         <v>3</v>
       </c>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.833451</v>
+        <v>1.346799</v>
       </c>
       <c r="H4">
-        <v>5.500353</v>
+        <v>4.040397</v>
       </c>
       <c r="I4">
-        <v>0.08912979432221635</v>
+        <v>0.06286736108928971</v>
       </c>
       <c r="J4">
-        <v>0.1065114253185847</v>
+        <v>0.07647429322219859</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.442508333333333</v>
+        <v>6.293636666666667</v>
       </c>
       <c r="N4">
-        <v>13.327525</v>
+        <v>18.88091</v>
       </c>
       <c r="O4">
-        <v>0.09348673181306549</v>
+        <v>0.12041993100245</v>
       </c>
       <c r="P4">
-        <v>0.100545061469714</v>
+        <v>0.1316036924905903</v>
       </c>
       <c r="Q4">
-        <v>8.145121346258332</v>
+        <v>8.476263569030001</v>
       </c>
       <c r="R4">
-        <v>73.30609211632498</v>
+        <v>76.28637212127001</v>
       </c>
       <c r="S4">
-        <v>0.008332453178354727</v>
+        <v>0.00757048328467838</v>
       </c>
       <c r="T4">
-        <v>0.01070919780588395</v>
+        <v>0.01006429936864946</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +711,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.833451</v>
+        <v>1.346799</v>
       </c>
       <c r="H5">
-        <v>5.500353</v>
+        <v>4.040397</v>
       </c>
       <c r="I5">
-        <v>0.08912979432221635</v>
+        <v>0.06286736108928971</v>
       </c>
       <c r="J5">
-        <v>0.1065114253185847</v>
+        <v>0.07647429322219859</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>10.0078485</v>
+        <v>13.324299</v>
       </c>
       <c r="N5">
-        <v>20.015697</v>
+        <v>26.648598</v>
       </c>
       <c r="O5">
-        <v>0.2106019794549903</v>
+        <v>0.2549418168249328</v>
       </c>
       <c r="P5">
-        <v>0.1510017415254648</v>
+        <v>0.1857460205306503</v>
       </c>
       <c r="Q5">
-        <v>18.3488998401735</v>
+        <v>17.945152568901</v>
       </c>
       <c r="R5">
-        <v>110.093399041041</v>
+        <v>107.670915413406</v>
       </c>
       <c r="S5">
-        <v>0.01877091111267492</v>
+        <v>0.01602751925509261</v>
       </c>
       <c r="T5">
-        <v>0.01608341071546578</v>
+        <v>0.01420479563891747</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,10 +773,10 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
         <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.833451</v>
+        <v>1.346799</v>
       </c>
       <c r="H6">
-        <v>5.500353</v>
+        <v>4.040397</v>
       </c>
       <c r="I6">
-        <v>0.08912979432221635</v>
+        <v>0.06286736108928971</v>
       </c>
       <c r="J6">
-        <v>0.1065114253185847</v>
+        <v>0.07647429322219859</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.022911666666666</v>
+        <v>5.800427666666667</v>
       </c>
       <c r="N6">
-        <v>15.068735</v>
+        <v>17.401283</v>
       </c>
       <c r="O6">
-        <v>0.1057005548822571</v>
+        <v>0.110983066929195</v>
       </c>
       <c r="P6">
-        <v>0.1136810388159715</v>
+        <v>0.1212903984433873</v>
       </c>
       <c r="Q6">
-        <v>9.209262418161666</v>
+        <v>7.812010181039001</v>
       </c>
       <c r="R6">
-        <v>82.883361763455</v>
+        <v>70.30809162935101</v>
       </c>
       <c r="S6">
-        <v>0.009421068716399717</v>
+        <v>0.006977212543434508</v>
       </c>
       <c r="T6">
-        <v>0.01210832947598649</v>
+        <v>0.009275597495596904</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
         <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>25.922615</v>
       </c>
       <c r="I7">
-        <v>0.4200598294771264</v>
+        <v>0.4033480862359907</v>
       </c>
       <c r="J7">
-        <v>0.5019777224543451</v>
+        <v>0.4906482359521016</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>8.206141000000001</v>
+        <v>7.004922666666666</v>
       </c>
       <c r="N7">
-        <v>24.618423</v>
+        <v>21.014768</v>
       </c>
       <c r="O7">
-        <v>0.1726874201070044</v>
+        <v>0.134029393318039</v>
       </c>
       <c r="P7">
-        <v>0.185725470694853</v>
+        <v>0.1464771065395205</v>
       </c>
       <c r="Q7">
-        <v>70.90821125957167</v>
+        <v>60.52863779759112</v>
       </c>
       <c r="R7">
-        <v>638.173901336145</v>
+        <v>544.75774017832</v>
       </c>
       <c r="S7">
-        <v>0.07253904824299316</v>
+        <v>0.05406049929420189</v>
       </c>
       <c r="T7">
-        <v>0.09323004878116353</v>
+        <v>0.07186873393098377</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
         <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>25.922615</v>
       </c>
       <c r="I8">
-        <v>0.4200598294771264</v>
+        <v>0.4033480862359907</v>
       </c>
       <c r="J8">
-        <v>0.5019777224543451</v>
+        <v>0.4906482359521016</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>59.522376</v>
       </c>
       <c r="O8">
-        <v>0.4175233137426827</v>
+        <v>0.3796257919253833</v>
       </c>
       <c r="P8">
-        <v>0.4490466874939968</v>
+        <v>0.4148827819958515</v>
       </c>
       <c r="Q8">
         <v>171.4417374370267</v>
@@ -948,10 +948,10 @@
         <v>1542.97563693324</v>
       </c>
       <c r="S8">
-        <v>0.175384771973476</v>
+        <v>0.1531213366589257</v>
       </c>
       <c r="T8">
-        <v>0.2254114334639046</v>
+        <v>0.2035615051131649</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,10 +980,10 @@
         <v>25.922615</v>
       </c>
       <c r="I9">
-        <v>0.4200598294771264</v>
+        <v>0.4033480862359907</v>
       </c>
       <c r="J9">
-        <v>0.5019777224543451</v>
+        <v>0.4906482359521016</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.442508333333333</v>
+        <v>6.293636666666667</v>
       </c>
       <c r="N9">
-        <v>13.327525</v>
+        <v>18.88091</v>
       </c>
       <c r="O9">
-        <v>0.09348673181306549</v>
+        <v>0.12041993100245</v>
       </c>
       <c r="P9">
-        <v>0.100545061469714</v>
+        <v>0.1316036924905903</v>
       </c>
       <c r="Q9">
-        <v>38.38714438643055</v>
+        <v>54.38250675329445</v>
       </c>
       <c r="R9">
-        <v>345.484299477875</v>
+        <v>489.44256077965</v>
       </c>
       <c r="S9">
-        <v>0.03927002062377014</v>
+        <v>0.04857114871450827</v>
       </c>
       <c r="T9">
-        <v>0.05047138096059915</v>
+        <v>0.06457111956529098</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,13 +1021,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
         <v>24</v>
       </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1042,10 +1042,10 @@
         <v>25.922615</v>
       </c>
       <c r="I10">
-        <v>0.4200598294771264</v>
+        <v>0.4033480862359907</v>
       </c>
       <c r="J10">
-        <v>0.5019777224543451</v>
+        <v>0.4906482359521016</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>10.0078485</v>
+        <v>13.324299</v>
       </c>
       <c r="N10">
-        <v>20.015697</v>
+        <v>26.648598</v>
       </c>
       <c r="O10">
-        <v>0.2106019794549903</v>
+        <v>0.2549418168249328</v>
       </c>
       <c r="P10">
-        <v>0.1510017415254648</v>
+        <v>0.1857460205306503</v>
       </c>
       <c r="Q10">
-        <v>86.47653454794252</v>
+        <v>115.133557707295</v>
       </c>
       <c r="R10">
-        <v>518.8592072876551</v>
+        <v>690.80134624377</v>
       </c>
       <c r="S10">
-        <v>0.08846543157740852</v>
+        <v>0.1028302939178631</v>
       </c>
       <c r="T10">
-        <v>0.07579951029759253</v>
+        <v>0.09113595730848639</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,10 +1083,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
         <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>26</v>
@@ -1104,10 +1104,10 @@
         <v>25.922615</v>
       </c>
       <c r="I11">
-        <v>0.4200598294771264</v>
+        <v>0.4033480862359907</v>
       </c>
       <c r="J11">
-        <v>0.5019777224543451</v>
+        <v>0.4906482359521016</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>5.022911666666666</v>
+        <v>5.800427666666667</v>
       </c>
       <c r="N11">
-        <v>15.068735</v>
+        <v>17.401283</v>
       </c>
       <c r="O11">
-        <v>0.1057005548822571</v>
+        <v>0.110983066929195</v>
       </c>
       <c r="P11">
-        <v>0.1136810388159715</v>
+        <v>0.1212903984433873</v>
       </c>
       <c r="Q11">
-        <v>43.40233510466945</v>
+        <v>50.12075107944945</v>
       </c>
       <c r="R11">
-        <v>390.621015942025</v>
+        <v>451.086759715045</v>
       </c>
       <c r="S11">
-        <v>0.04440055705947856</v>
+        <v>0.04476480765049166</v>
       </c>
       <c r="T11">
-        <v>0.05706534895108539</v>
+        <v>0.05951092003417553</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,31 +1145,31 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
         <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.025497</v>
+        <v>11.4351945</v>
       </c>
       <c r="H12">
-        <v>0.076491</v>
+        <v>22.870389</v>
       </c>
       <c r="I12">
-        <v>0.001239489010523625</v>
+        <v>0.5337845526747197</v>
       </c>
       <c r="J12">
-        <v>0.001481207739583962</v>
+        <v>0.4328774708256999</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>8.206141000000001</v>
+        <v>7.004922666666666</v>
       </c>
       <c r="N12">
-        <v>24.618423</v>
+        <v>21.014768</v>
       </c>
       <c r="O12">
-        <v>0.1726874201070044</v>
+        <v>0.134029393318039</v>
       </c>
       <c r="P12">
-        <v>0.185725470694853</v>
+        <v>0.1464771065395205</v>
       </c>
       <c r="Q12">
-        <v>0.209231977077</v>
+        <v>80.10265315079201</v>
       </c>
       <c r="R12">
-        <v>1.883087793693</v>
+        <v>480.615918904752</v>
       </c>
       <c r="S12">
-        <v>0.0002140441594783084</v>
+        <v>0.07154281975753349</v>
       </c>
       <c r="T12">
-        <v>0.0002750980046310907</v>
+        <v>0.06340663941269421</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,31 +1207,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
         <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.025497</v>
+        <v>11.4351945</v>
       </c>
       <c r="H13">
-        <v>0.076491</v>
+        <v>22.870389</v>
       </c>
       <c r="I13">
-        <v>0.001239489010523625</v>
+        <v>0.5337845526747197</v>
       </c>
       <c r="J13">
-        <v>0.001481207739583962</v>
+        <v>0.4328774708256999</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>59.522376</v>
       </c>
       <c r="O13">
-        <v>0.4175233137426827</v>
+        <v>0.3796257919253833</v>
       </c>
       <c r="P13">
-        <v>0.4490466874939968</v>
+        <v>0.4148827819958515</v>
       </c>
       <c r="Q13">
-        <v>0.505880673624</v>
+        <v>226.883315554044</v>
       </c>
       <c r="R13">
-        <v>4.552926062616001</v>
+        <v>1361.299893324264</v>
       </c>
       <c r="S13">
-        <v>0.0005175155590214628</v>
+        <v>0.2026383835266769</v>
       </c>
       <c r="T13">
-        <v>0.000665131428950649</v>
+        <v>0.1795934093594944</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,31 +1269,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
         <v>24</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>25</v>
       </c>
-      <c r="D14" t="s">
-        <v>22</v>
-      </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.025497</v>
+        <v>11.4351945</v>
       </c>
       <c r="H14">
-        <v>0.076491</v>
+        <v>22.870389</v>
       </c>
       <c r="I14">
-        <v>0.001239489010523625</v>
+        <v>0.5337845526747197</v>
       </c>
       <c r="J14">
-        <v>0.001481207739583962</v>
+        <v>0.4328774708256999</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.442508333333333</v>
+        <v>6.293636666666667</v>
       </c>
       <c r="N14">
-        <v>13.327525</v>
+        <v>18.88091</v>
       </c>
       <c r="O14">
-        <v>0.09348673181306549</v>
+        <v>0.12041993100245</v>
       </c>
       <c r="P14">
-        <v>0.100545061469714</v>
+        <v>0.1316036924905903</v>
       </c>
       <c r="Q14">
-        <v>0.113270634975</v>
+        <v>71.96895939566501</v>
       </c>
       <c r="R14">
-        <v>1.019435714775</v>
+        <v>431.81375637399</v>
       </c>
       <c r="S14">
-        <v>0.000115875776712064</v>
+        <v>0.06427829900326341</v>
       </c>
       <c r="T14">
-        <v>0.0001489281232258856</v>
+        <v>0.05696827355664989</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,31 +1331,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
         <v>24</v>
       </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.025497</v>
+        <v>11.4351945</v>
       </c>
       <c r="H15">
-        <v>0.076491</v>
+        <v>22.870389</v>
       </c>
       <c r="I15">
-        <v>0.001239489010523625</v>
+        <v>0.5337845526747197</v>
       </c>
       <c r="J15">
-        <v>0.001481207739583962</v>
+        <v>0.4328774708256999</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>10.0078485</v>
+        <v>13.324299</v>
       </c>
       <c r="N15">
-        <v>20.015697</v>
+        <v>26.648598</v>
       </c>
       <c r="O15">
-        <v>0.2106019794549903</v>
+        <v>0.2549418168249328</v>
       </c>
       <c r="P15">
-        <v>0.1510017415254648</v>
+        <v>0.1857460205306503</v>
       </c>
       <c r="Q15">
-        <v>0.2551701132045001</v>
+        <v>152.3659506411555</v>
       </c>
       <c r="R15">
-        <v>1.531020679227</v>
+        <v>609.463802564622</v>
       </c>
       <c r="S15">
-        <v>0.0002610388391289827</v>
+        <v>0.1360840036519771</v>
       </c>
       <c r="T15">
-        <v>0.0002236649482381755</v>
+        <v>0.08040526758324641</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,31 +1393,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
         <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
       </c>
       <c r="D16" t="s">
         <v>26</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.025497</v>
+        <v>11.4351945</v>
       </c>
       <c r="H16">
-        <v>0.076491</v>
+        <v>22.870389</v>
       </c>
       <c r="I16">
-        <v>0.001239489010523625</v>
+        <v>0.5337845526747197</v>
       </c>
       <c r="J16">
-        <v>0.001481207739583962</v>
+        <v>0.4328774708256999</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,338 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>5.022911666666666</v>
+        <v>5.800427666666667</v>
       </c>
       <c r="N16">
-        <v>15.068735</v>
+        <v>17.401283</v>
       </c>
       <c r="O16">
-        <v>0.1057005548822571</v>
+        <v>0.110983066929195</v>
       </c>
       <c r="P16">
-        <v>0.1136810388159715</v>
+        <v>0.1212903984433873</v>
       </c>
       <c r="Q16">
-        <v>0.128069178765</v>
+        <v>66.32901855151451</v>
       </c>
       <c r="R16">
-        <v>1.152622608885</v>
+        <v>397.974111309087</v>
       </c>
       <c r="S16">
-        <v>0.0001310146761828069</v>
+        <v>0.05924104673526882</v>
       </c>
       <c r="T16">
-        <v>0.0001683852345381619</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>10.070754</v>
-      </c>
-      <c r="H17">
-        <v>20.141508</v>
-      </c>
-      <c r="I17">
-        <v>0.4895708871901335</v>
-      </c>
-      <c r="J17">
-        <v>0.390029644487486</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>8.206141000000001</v>
-      </c>
-      <c r="N17">
-        <v>24.618423</v>
-      </c>
-      <c r="O17">
-        <v>0.1726874201070044</v>
-      </c>
-      <c r="P17">
-        <v>0.185725470694853</v>
-      </c>
-      <c r="Q17">
-        <v>82.642027300314</v>
-      </c>
-      <c r="R17">
-        <v>495.8521638018839</v>
-      </c>
-      <c r="S17">
-        <v>0.08454273346836146</v>
-      </c>
-      <c r="T17">
-        <v>0.07243843930738451</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18">
-        <v>2</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>10.070754</v>
-      </c>
-      <c r="H18">
-        <v>20.141508</v>
-      </c>
-      <c r="I18">
-        <v>0.4895708871901335</v>
-      </c>
-      <c r="J18">
-        <v>0.390029644487486</v>
-      </c>
-      <c r="K18">
-        <v>3</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <v>19.840792</v>
-      </c>
-      <c r="N18">
-        <v>59.522376</v>
-      </c>
-      <c r="O18">
-        <v>0.4175233137426827</v>
-      </c>
-      <c r="P18">
-        <v>0.4490466874939968</v>
-      </c>
-      <c r="Q18">
-        <v>199.811735397168</v>
-      </c>
-      <c r="R18">
-        <v>1198.870412383008</v>
-      </c>
-      <c r="S18">
-        <v>0.2044072591315697</v>
-      </c>
-      <c r="T18">
-        <v>0.1751415198815668</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19">
-        <v>2</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>10.070754</v>
-      </c>
-      <c r="H19">
-        <v>20.141508</v>
-      </c>
-      <c r="I19">
-        <v>0.4895708871901335</v>
-      </c>
-      <c r="J19">
-        <v>0.390029644487486</v>
-      </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>4.442508333333333</v>
-      </c>
-      <c r="N19">
-        <v>13.327525</v>
-      </c>
-      <c r="O19">
-        <v>0.09348673181306549</v>
-      </c>
-      <c r="P19">
-        <v>0.100545061469714</v>
-      </c>
-      <c r="Q19">
-        <v>44.73940856794999</v>
-      </c>
-      <c r="R19">
-        <v>268.4364514076999</v>
-      </c>
-      <c r="S19">
-        <v>0.04576838223422856</v>
-      </c>
-      <c r="T19">
-        <v>0.03921555458000497</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20">
-        <v>2</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>10.070754</v>
-      </c>
-      <c r="H20">
-        <v>20.141508</v>
-      </c>
-      <c r="I20">
-        <v>0.4895708871901335</v>
-      </c>
-      <c r="J20">
-        <v>0.390029644487486</v>
-      </c>
-      <c r="K20">
-        <v>2</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>10.0078485</v>
-      </c>
-      <c r="N20">
-        <v>20.015697</v>
-      </c>
-      <c r="O20">
-        <v>0.2106019794549903</v>
-      </c>
-      <c r="P20">
-        <v>0.1510017415254648</v>
-      </c>
-      <c r="Q20">
-        <v>100.786580312769</v>
-      </c>
-      <c r="R20">
-        <v>403.146321251076</v>
-      </c>
-      <c r="S20">
-        <v>0.1031045979257779</v>
-      </c>
-      <c r="T20">
-        <v>0.05889515556416829</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
-        <v>26</v>
-      </c>
-      <c r="E21">
-        <v>2</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>10.070754</v>
-      </c>
-      <c r="H21">
-        <v>20.141508</v>
-      </c>
-      <c r="I21">
-        <v>0.4895708871901335</v>
-      </c>
-      <c r="J21">
-        <v>0.390029644487486</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>5.022911666666666</v>
-      </c>
-      <c r="N21">
-        <v>15.068735</v>
-      </c>
-      <c r="O21">
-        <v>0.1057005548822571</v>
-      </c>
-      <c r="P21">
-        <v>0.1136810388159715</v>
-      </c>
-      <c r="Q21">
-        <v>50.58450775872999</v>
-      </c>
-      <c r="R21">
-        <v>303.50704655238</v>
-      </c>
-      <c r="S21">
-        <v>0.05174791443019601</v>
-      </c>
-      <c r="T21">
-        <v>0.04433897515436147</v>
+        <v>0.05250388091361492</v>
       </c>
     </row>
   </sheetData>
